--- a/data/Nation_Park_Budget/National_Park_Budget_2021.xlsx
+++ b/data/Nation_Park_Budget/National_Park_Budget_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\UCD_Projects\project-national-park-performance\data\Nation_Park_Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05E5EC8-B4DF-4AE0-8C24-B044B211F680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0A2D01-DA8D-4CE9-A936-1AD7957603EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-1980" windowWidth="21840" windowHeight="13740" xr2:uid="{DE0FDE59-55F6-485A-939C-D7CBF0F61B5F}"/>
+    <workbookView minimized="1" xWindow="-15885" yWindow="-1515" windowWidth="15375" windowHeight="7875" xr2:uid="{DE0FDE59-55F6-485A-939C-D7CBF0F61B5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
